--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -4,17 +4,17 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14112" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
   <si>
     <t>Item ID</t>
   </si>
@@ -79,9 +79,6 @@
     <t>Sprite Offset (x.f, y.f)</t>
   </si>
   <si>
-    <t>level item bounding box (x, y, w, h)</t>
-  </si>
-  <si>
     <t>Texture Positions for level item (x1, y1, w1, h1, x2, y2, w2, h2, …)</t>
   </si>
   <si>
@@ -97,18 +94,12 @@
     <t>itd_wizardhat</t>
   </si>
   <si>
-    <t>100, 100</t>
-  </si>
-  <si>
     <t>res/assets/equipment/head/spritesheet_head_wizardhat_blue.png</t>
   </si>
   <si>
     <t>it_eq_wizardhatgrey</t>
   </si>
   <si>
-    <t>150, 100</t>
-  </si>
-  <si>
     <t>res/assets/equipment/head/spritesheet_head_wizardhat_grey.png</t>
   </si>
   <si>
@@ -118,9 +109,6 @@
     <t>itd_icestaff</t>
   </si>
   <si>
-    <t>200, 100</t>
-  </si>
-  <si>
     <t>res/assets/equipment/weapon/spritesheet_staff_ice.png</t>
   </si>
   <si>
@@ -130,9 +118,6 @@
     <t>itd_rustysword</t>
   </si>
   <si>
-    <t>250, 100</t>
-  </si>
-  <si>
     <t>res/assets/equipment/weapon/spritesheet_weapon_rustysword.png</t>
   </si>
   <si>
@@ -154,9 +139,6 @@
     <t>0, 100</t>
   </si>
   <si>
-    <t>0, 0, 22, 22</t>
-  </si>
-  <si>
     <t>0, 0, 50, 50</t>
   </si>
   <si>
@@ -169,9 +151,6 @@
     <t>50, 100</t>
   </si>
   <si>
-    <t>0, 0, 30, 5</t>
-  </si>
-  <si>
     <t>200, 0, 50, 50</t>
   </si>
   <si>
@@ -184,9 +163,6 @@
     <t>100, 0</t>
   </si>
   <si>
-    <t>0, 0, 18, 30</t>
-  </si>
-  <si>
     <t>200, 50, 50, 50</t>
   </si>
   <si>
@@ -202,9 +178,6 @@
     <t>0, -30</t>
   </si>
   <si>
-    <t>0, 0, 50, 70</t>
-  </si>
-  <si>
     <t>0, 0, 50, 100</t>
   </si>
   <si>
@@ -217,9 +190,6 @@
     <t>150, 50</t>
   </si>
   <si>
-    <t>0, 0, 30, 30</t>
-  </si>
-  <si>
     <t>100, 50, 50, 50</t>
   </si>
   <si>
@@ -235,9 +205,6 @@
     <t>-10, 0</t>
   </si>
   <si>
-    <t>0, 0, 30, 50</t>
-  </si>
-  <si>
     <t>50, 50, 50, 50</t>
   </si>
   <si>
@@ -253,9 +220,6 @@
     <t>0, -20</t>
   </si>
   <si>
-    <t>0, 0, 50, 30</t>
-  </si>
-  <si>
     <t>150, 0, 50, 50</t>
   </si>
   <si>
@@ -268,9 +232,6 @@
     <t>0, 50</t>
   </si>
   <si>
-    <t>0, 0, 30, 40</t>
-  </si>
-  <si>
     <t>50, 0, 50, 50</t>
   </si>
   <si>
@@ -283,18 +244,12 @@
     <t>100, 50</t>
   </si>
   <si>
-    <t>0, 0, 5, 5</t>
-  </si>
-  <si>
     <t>it_go_threecoins</t>
   </si>
   <si>
     <t>itd_threecoins</t>
   </si>
   <si>
-    <t>0, 0, 25, 25</t>
-  </si>
-  <si>
     <t>150, 50, 50, 50</t>
   </si>
   <si>
@@ -329,6 +284,90 @@
   </si>
   <si>
     <t>-14, -40</t>
+  </si>
+  <si>
+    <t>0, 150</t>
+  </si>
+  <si>
+    <t>50, 150</t>
+  </si>
+  <si>
+    <t>100, 150</t>
+  </si>
+  <si>
+    <t>150, 150</t>
+  </si>
+  <si>
+    <t>200, 150</t>
+  </si>
+  <si>
+    <t>weapon chop cooldown (ms)</t>
+  </si>
+  <si>
+    <t>40, 80</t>
+  </si>
+  <si>
+    <t>weapon chop rectangle (0, 0, w, h)</t>
+  </si>
+  <si>
+    <t>40, 50</t>
+  </si>
+  <si>
+    <t>weapon chop damage</t>
+  </si>
+  <si>
+    <t>level item bounding box (0, 0, w, h)</t>
+  </si>
+  <si>
+    <t>22, 22</t>
+  </si>
+  <si>
+    <t>30, 5</t>
+  </si>
+  <si>
+    <t>18, 30</t>
+  </si>
+  <si>
+    <t>50, 70</t>
+  </si>
+  <si>
+    <t>30, 30</t>
+  </si>
+  <si>
+    <t>30, 50</t>
+  </si>
+  <si>
+    <t>50, 30</t>
+  </si>
+  <si>
+    <t>30, 40</t>
+  </si>
+  <si>
+    <t>5, 5</t>
+  </si>
+  <si>
+    <t>25, 25</t>
+  </si>
+  <si>
+    <t>slot 2</t>
+  </si>
+  <si>
+    <t>slot 3</t>
+  </si>
+  <si>
+    <t>slot 4</t>
+  </si>
+  <si>
+    <t>slot 5</t>
+  </si>
+  <si>
+    <t>slot 1 (the first entry is the type (elemental, twilight, necromancy, divine, illusion) and after this, the 0 and 1 show if there is a modifier for this type (strength, duration, range, speed, damage, count, reflect)</t>
+  </si>
+  <si>
+    <t>1, 0, 0, 0, 1, 0, 1, 0</t>
+  </si>
+  <si>
+    <t>1, 0, 0, 0, 0, 1, 0, 1</t>
   </si>
 </sst>
 </file>
@@ -1151,18 +1190,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
+      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="21" max="21" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25">
+    <row r="1" spans="1:33">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1227,30 +1266,54 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
+        <v>100</v>
+      </c>
+      <c r="W1" t="s">
         <v>21</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>22</v>
       </c>
-      <c r="X1" t="s">
+      <c r="Y1" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="Z1" t="s">
+        <v>95</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>97</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>99</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>111</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>112</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>113</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="2" spans="1:25">
-      <c r="A2" t="s">
+      <c r="B2" t="s">
         <v>25</v>
-      </c>
-      <c r="B2" t="s">
-        <v>26</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>27</v>
+        <v>90</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -1265,21 +1328,21 @@
         <v>2</v>
       </c>
       <c r="Y2" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:25">
+    <row r="3" spans="1:33">
       <c r="A3" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>91</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1294,21 +1357,21 @@
         <v>2</v>
       </c>
       <c r="Y3" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:25">
+    <row r="4" spans="1:33">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4">
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>94</v>
       </c>
       <c r="E4">
         <v>120</v>
@@ -1323,21 +1386,36 @@
         <v>30</v>
       </c>
       <c r="Y4" t="s">
-        <v>35</v>
+        <v>31</v>
+      </c>
+      <c r="Z4">
+        <v>500</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>96</v>
+      </c>
+      <c r="AB4">
+        <v>10</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>117</v>
       </c>
     </row>
-    <row r="5" spans="1:25">
+    <row r="5" spans="1:33">
       <c r="A5" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>38</v>
+        <v>93</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1346,21 +1424,30 @@
         <v>5</v>
       </c>
       <c r="Y5" t="s">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="Z5">
+        <v>350</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>98</v>
+      </c>
+      <c r="AB5">
+        <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:25">
+    <row r="6" spans="1:33">
       <c r="A6" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C6">
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>38</v>
+        <v>92</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1372,21 +1459,21 @@
         <v>5</v>
       </c>
       <c r="Y6" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
-    <row r="7" spans="1:25">
+    <row r="7" spans="1:33">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B7" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C7">
         <v>8</v>
       </c>
       <c r="D7" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -1401,30 +1488,30 @@
         <v>10</v>
       </c>
       <c r="U7" s="1" t="s">
-        <v>97</v>
+        <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>46</v>
+        <v>101</v>
       </c>
       <c r="W7" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="X7">
         <v>1000</v>
       </c>
     </row>
-    <row r="8" spans="1:25">
+    <row r="8" spans="1:33">
       <c r="A8" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="C8">
         <v>8</v>
       </c>
       <c r="D8" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="E8">
         <v>2</v>
@@ -1436,30 +1523,30 @@
         <v>15</v>
       </c>
       <c r="U8" s="1" t="s">
-        <v>98</v>
+        <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>51</v>
+        <v>102</v>
       </c>
       <c r="W8" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="X8">
         <v>1000</v>
       </c>
     </row>
-    <row r="9" spans="1:25">
+    <row r="9" spans="1:33">
       <c r="A9" t="s">
-        <v>53</v>
+        <v>46</v>
       </c>
       <c r="B9" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>55</v>
+        <v>48</v>
       </c>
       <c r="E9">
         <v>2</v>
@@ -1477,30 +1564,30 @@
         <v>5</v>
       </c>
       <c r="U9" s="1" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="V9" t="s">
-        <v>56</v>
+        <v>103</v>
       </c>
       <c r="W9" t="s">
-        <v>57</v>
+        <v>49</v>
       </c>
       <c r="X9">
         <v>1000</v>
       </c>
     </row>
-    <row r="10" spans="1:25">
+    <row r="10" spans="1:33">
       <c r="A10" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="B10" t="s">
-        <v>59</v>
+        <v>51</v>
       </c>
       <c r="C10">
         <v>8</v>
       </c>
       <c r="D10" t="s">
-        <v>60</v>
+        <v>52</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1521,30 +1608,30 @@
         <v>20</v>
       </c>
       <c r="U10" s="1" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>62</v>
+        <v>104</v>
       </c>
       <c r="W10" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="X10">
         <v>1000</v>
       </c>
     </row>
-    <row r="11" spans="1:25">
+    <row r="11" spans="1:33">
       <c r="A11" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
+        <v>56</v>
       </c>
       <c r="C11">
         <v>8</v>
       </c>
       <c r="D11" t="s">
-        <v>66</v>
+        <v>57</v>
       </c>
       <c r="E11">
         <v>2</v>
@@ -1562,30 +1649,30 @@
         <v>15</v>
       </c>
       <c r="U11" s="1" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>67</v>
+        <v>105</v>
       </c>
       <c r="W11" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="X11">
         <v>1000</v>
       </c>
     </row>
-    <row r="12" spans="1:25">
+    <row r="12" spans="1:33">
       <c r="A12" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="B12" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="C12">
         <v>8</v>
       </c>
       <c r="D12" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E12">
         <v>5</v>
@@ -1597,111 +1684,111 @@
         <v>10</v>
       </c>
       <c r="U12" s="1" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>73</v>
+        <v>106</v>
       </c>
       <c r="W12" t="s">
-        <v>74</v>
+        <v>63</v>
       </c>
       <c r="X12">
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:25">
+    <row r="13" spans="1:33">
       <c r="A13" t="s">
-        <v>75</v>
+        <v>64</v>
       </c>
       <c r="B13" t="s">
-        <v>76</v>
+        <v>65</v>
       </c>
       <c r="C13">
         <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>77</v>
+        <v>66</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="U13" s="1" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="V13" t="s">
-        <v>79</v>
+        <v>107</v>
       </c>
       <c r="W13" t="s">
-        <v>80</v>
+        <v>68</v>
       </c>
       <c r="X13">
         <v>1000</v>
       </c>
     </row>
-    <row r="14" spans="1:25">
+    <row r="14" spans="1:33">
       <c r="A14" t="s">
-        <v>81</v>
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
       <c r="C14">
         <v>12</v>
       </c>
       <c r="D14" t="s">
-        <v>83</v>
+        <v>71</v>
       </c>
       <c r="E14">
         <v>15</v>
       </c>
       <c r="U14" s="1" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
       <c r="V14" t="s">
-        <v>84</v>
+        <v>108</v>
       </c>
       <c r="W14" t="s">
-        <v>85</v>
+        <v>72</v>
       </c>
       <c r="X14">
         <v>1000</v>
       </c>
     </row>
-    <row r="15" spans="1:25">
+    <row r="15" spans="1:33">
       <c r="A15" t="s">
-        <v>86</v>
+        <v>73</v>
       </c>
       <c r="B15" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C15">
         <v>2</v>
       </c>
       <c r="D15" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="E15">
         <v>20</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>104</v>
+        <v>89</v>
       </c>
       <c r="V15" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="W15" t="s">
-        <v>52</v>
+        <v>45</v>
       </c>
       <c r="X15">
         <v>1000</v>
       </c>
     </row>
-    <row r="16" spans="1:25">
+    <row r="16" spans="1:33">
       <c r="A16" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C16">
         <v>13</v>
@@ -1710,13 +1797,13 @@
         <v>3</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>103</v>
+        <v>88</v>
       </c>
       <c r="V16" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="W16" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="X16">
         <v>1000</v>
@@ -1724,10 +1811,10 @@
     </row>
     <row r="17" spans="1:24">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>95</v>
+        <v>80</v>
       </c>
       <c r="C17">
         <v>13</v>
@@ -1736,13 +1823,13 @@
         <v>1</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>102</v>
+        <v>87</v>
       </c>
       <c r="V17" t="s">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="W17" t="s">
-        <v>96</v>
+        <v>81</v>
       </c>
       <c r="X17">
         <v>1000</v>

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
   <si>
     <t>Item ID</t>
   </si>
@@ -368,6 +368,12 @@
   </si>
   <si>
     <t>1, 0, 0, 0, 0, 1, 0, 1</t>
+  </si>
+  <si>
+    <t>4, 1,1,1,1, 1, 0, 1</t>
+  </si>
+  <si>
+    <t>4,1,1,1,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1193,7 +1199,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="Z1" sqref="Z1:Z1048576"/>
+      <selection activeCell="AF6" sqref="AF6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1403,6 +1409,12 @@
       <c r="AD4" t="s">
         <v>117</v>
       </c>
+      <c r="AE4" t="s">
+        <v>118</v>
+      </c>
+      <c r="AF4" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
   <si>
     <t>Item ID</t>
   </si>
@@ -374,6 +374,9 @@
   </si>
   <si>
     <t>4,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>3,1,1,1,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1199,7 +1202,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AF6" sqref="AF6"/>
+      <selection activeCell="AE6" sqref="AE6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1415,6 +1418,9 @@
       <c r="AF4" t="s">
         <v>119</v>
       </c>
+      <c r="AG4" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="5" spans="1:33">
       <c r="A5" t="s">

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
   <si>
     <t>Item ID</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>3,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>1,1,1,1,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1202,7 +1205,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE6" sqref="AE6"/>
+      <selection activeCell="AC9" sqref="AC9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
@@ -1453,6 +1456,9 @@
       <c r="AB5">
         <v>5</v>
       </c>
+      <c r="AC5" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="14112" windowHeight="7752"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
   <si>
     <t>Item ID</t>
   </si>
@@ -1205,12 +1205,12 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AC9" sqref="AC9"/>
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="21" max="21" width="11.44140625" style="1"/>
+    <col min="21" max="21" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1457,6 +1457,9 @@
         <v>5</v>
       </c>
       <c r="AC5" t="s">
+        <v>121</v>
+      </c>
+      <c r="AD5" t="s">
         <v>121</v>
       </c>
     </row>

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
   <si>
     <t>Item ID</t>
   </si>
@@ -1205,7 +1205,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+      <selection activeCell="AE9" sqref="AE9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1462,6 +1462,9 @@
       <c r="AD5" t="s">
         <v>121</v>
       </c>
+      <c r="AE5" t="s">
+        <v>120</v>
+      </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
   <si>
     <t>Item ID</t>
   </si>
@@ -380,6 +380,9 @@
   </si>
   <si>
     <t>1,1,1,1,1,1,1,1</t>
+  </si>
+  <si>
+    <t>2,1,1,1,1,1,1,1</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1208,7 @@
   <dimension ref="A1:AG17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AE9" sqref="AE9"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1465,6 +1468,9 @@
       <c r="AE5" t="s">
         <v>120</v>
       </c>
+      <c r="AF5" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="6" spans="1:33">
       <c r="A6" t="s">

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -1207,8 +1207,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Y1" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1769,7 +1769,7 @@
         <v>70</v>
       </c>
       <c r="C14">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D14" t="s">
         <v>71</v>
@@ -1827,7 +1827,7 @@
         <v>77</v>
       </c>
       <c r="C16">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E16">
         <v>3</v>
@@ -1853,7 +1853,7 @@
         <v>80</v>
       </c>
       <c r="C17">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E17">
         <v>1</v>

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="123">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
   <si>
     <t>Item ID</t>
   </si>
@@ -361,28 +361,19 @@
     <t>slot 5</t>
   </si>
   <si>
-    <t>slot 1 (the first entry is the type (elemental, twilight, necromancy, divine, illusion) and after this, the 0 and 1 show if there is a modifier for this type (strength, duration, range, speed, damage, count, reflect)</t>
-  </si>
-  <si>
-    <t>1, 0, 0, 0, 1, 0, 1, 0</t>
-  </si>
-  <si>
-    <t>1, 0, 0, 0, 0, 1, 0, 1</t>
-  </si>
-  <si>
-    <t>4, 1,1,1,1, 1, 0, 1</t>
-  </si>
-  <si>
-    <t>4,1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>3,1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>1,1,1,1,1,1,1,1</t>
-  </si>
-  <si>
-    <t>2,1,1,1,1,1,1,1</t>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>4, 3</t>
+  </si>
+  <si>
+    <t>3, 3</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>slot 1 (the first entry is the type (elemental, twilight, necromancy, divine, illusion) and after this, the number shows the maximal modifiers for this slot</t>
   </si>
 </sst>
 </file>
@@ -1207,8 +1198,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
+      <selection activeCell="AG8" sqref="AG8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1302,7 +1293,7 @@
         <v>99</v>
       </c>
       <c r="AC1" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="AD1" t="s">
         <v>111</v>
@@ -1413,19 +1404,19 @@
         <v>10</v>
       </c>
       <c r="AC4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AD4" t="s">
+        <v>115</v>
+      </c>
+      <c r="AE4" t="s">
         <v>116</v>
       </c>
-      <c r="AD4" t="s">
+      <c r="AF4" t="s">
+        <v>116</v>
+      </c>
+      <c r="AG4" t="s">
         <v>117</v>
-      </c>
-      <c r="AE4" t="s">
-        <v>118</v>
-      </c>
-      <c r="AF4" t="s">
-        <v>119</v>
-      </c>
-      <c r="AG4" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1460,16 +1451,16 @@
         <v>5</v>
       </c>
       <c r="AC5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AD5" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="AE5" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="AF5" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:33">

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="135" windowWidth="14115" windowHeight="7755"/>
+    <workbookView xWindow="240" yWindow="132" windowWidth="14112" windowHeight="7752"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
   <si>
     <t>Item ID</t>
   </si>
@@ -277,9 +277,6 @@
     <t>-10, -5</t>
   </si>
   <si>
-    <t>-20, -40</t>
-  </si>
-  <si>
     <t>-5, -25</t>
   </si>
   <si>
@@ -304,76 +301,82 @@
     <t>weapon chop cooldown (ms)</t>
   </si>
   <si>
+    <t>weapon chop rectangle (0, 0, w, h)</t>
+  </si>
+  <si>
+    <t>weapon chop damage</t>
+  </si>
+  <si>
+    <t>level item bounding box (0, 0, w, h)</t>
+  </si>
+  <si>
+    <t>22, 22</t>
+  </si>
+  <si>
+    <t>30, 5</t>
+  </si>
+  <si>
+    <t>18, 30</t>
+  </si>
+  <si>
+    <t>50, 70</t>
+  </si>
+  <si>
+    <t>30, 30</t>
+  </si>
+  <si>
+    <t>30, 50</t>
+  </si>
+  <si>
+    <t>50, 30</t>
+  </si>
+  <si>
+    <t>30, 40</t>
+  </si>
+  <si>
+    <t>5, 5</t>
+  </si>
+  <si>
+    <t>25, 25</t>
+  </si>
+  <si>
+    <t>slot 2</t>
+  </si>
+  <si>
+    <t>slot 3</t>
+  </si>
+  <si>
+    <t>slot 4</t>
+  </si>
+  <si>
+    <t>slot 5</t>
+  </si>
+  <si>
+    <t>1, 3</t>
+  </si>
+  <si>
+    <t>4, 3</t>
+  </si>
+  <si>
+    <t>3, 3</t>
+  </si>
+  <si>
+    <t>2, 3</t>
+  </si>
+  <si>
+    <t>slot 1 (the first entry is the type (elemental, twilight, necromancy, divine, illusion) and after this, the number shows the maximal modifiers for this slot</t>
+  </si>
+  <si>
+    <t>45, 80</t>
+  </si>
+  <si>
     <t>40, 80</t>
   </si>
   <si>
-    <t>weapon chop rectangle (0, 0, w, h)</t>
-  </si>
-  <si>
-    <t>40, 50</t>
-  </si>
-  <si>
-    <t>weapon chop damage</t>
-  </si>
-  <si>
-    <t>level item bounding box (0, 0, w, h)</t>
-  </si>
-  <si>
-    <t>22, 22</t>
-  </si>
-  <si>
-    <t>30, 5</t>
-  </si>
-  <si>
-    <t>18, 30</t>
-  </si>
-  <si>
-    <t>50, 70</t>
-  </si>
-  <si>
-    <t>30, 30</t>
-  </si>
-  <si>
-    <t>30, 50</t>
-  </si>
-  <si>
-    <t>50, 30</t>
-  </si>
-  <si>
-    <t>30, 40</t>
-  </si>
-  <si>
-    <t>5, 5</t>
-  </si>
-  <si>
-    <t>25, 25</t>
-  </si>
-  <si>
-    <t>slot 2</t>
-  </si>
-  <si>
-    <t>slot 3</t>
-  </si>
-  <si>
-    <t>slot 4</t>
-  </si>
-  <si>
-    <t>slot 5</t>
-  </si>
-  <si>
-    <t>1, 3</t>
-  </si>
-  <si>
-    <t>4, 3</t>
-  </si>
-  <si>
-    <t>3, 3</t>
-  </si>
-  <si>
-    <t>2, 3</t>
-  </si>
-  <si>
-    <t>slot 1 (the first entry is the type (elemental, twilight, necromancy, divine, illusion) and after this, the number shows the maximal modifiers for this slot</t>
+    <t>8, 8</t>
+  </si>
+  <si>
+    <t>-18, -34</t>
   </si>
 </sst>
 </file>
@@ -1198,13 +1201,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="AG8" sqref="AG8"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
+      <selection activeCell="U20" sqref="U20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
   <cols>
-    <col min="21" max="21" width="11.42578125" style="1"/>
+    <col min="21" max="21" width="11.44140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1272,7 +1275,7 @@
         <v>20</v>
       </c>
       <c r="V1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="W1" t="s">
         <v>21</v>
@@ -1284,28 +1287,28 @@
         <v>23</v>
       </c>
       <c r="Z1" t="s">
+        <v>94</v>
+      </c>
+      <c r="AA1" t="s">
         <v>95</v>
       </c>
-      <c r="AA1" t="s">
-        <v>97</v>
-      </c>
       <c r="AB1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="AC1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="AD1" t="s">
+        <v>108</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>109</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>110</v>
+      </c>
+      <c r="AG1" t="s">
         <v>111</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>112</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>113</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:33">
@@ -1319,7 +1322,7 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E2">
         <v>22</v>
@@ -1348,7 +1351,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E3">
         <v>20</v>
@@ -1377,7 +1380,7 @@
         <v>4</v>
       </c>
       <c r="D4" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E4">
         <v>120</v>
@@ -1398,25 +1401,25 @@
         <v>500</v>
       </c>
       <c r="AA4" t="s">
-        <v>96</v>
+        <v>117</v>
       </c>
       <c r="AB4">
         <v>10</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AD4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="AE4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AF4" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="AG4" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
     </row>
     <row r="5" spans="1:33">
@@ -1430,7 +1433,7 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E5">
         <v>10</v>
@@ -1445,22 +1448,22 @@
         <v>350</v>
       </c>
       <c r="AA5" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="AB5">
         <v>5</v>
       </c>
       <c r="AC5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AD5" t="s">
+        <v>112</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>114</v>
+      </c>
+      <c r="AF5" t="s">
         <v>115</v>
-      </c>
-      <c r="AD5" t="s">
-        <v>115</v>
-      </c>
-      <c r="AE5" t="s">
-        <v>117</v>
-      </c>
-      <c r="AF5" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -1474,7 +1477,7 @@
         <v>7</v>
       </c>
       <c r="D6" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -1518,7 +1521,7 @@
         <v>82</v>
       </c>
       <c r="V7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="W7" t="s">
         <v>41</v>
@@ -1553,7 +1556,7 @@
         <v>83</v>
       </c>
       <c r="V8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="W8" t="s">
         <v>45</v>
@@ -1594,7 +1597,7 @@
         <v>84</v>
       </c>
       <c r="V9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="W9" t="s">
         <v>49</v>
@@ -1638,7 +1641,7 @@
         <v>53</v>
       </c>
       <c r="V10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="W10" t="s">
         <v>54</v>
@@ -1679,7 +1682,7 @@
         <v>85</v>
       </c>
       <c r="V11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="W11" t="s">
         <v>58</v>
@@ -1714,7 +1717,7 @@
         <v>62</v>
       </c>
       <c r="V12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="W12" t="s">
         <v>63</v>
@@ -1743,7 +1746,7 @@
         <v>67</v>
       </c>
       <c r="V13" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="W13" t="s">
         <v>68</v>
@@ -1772,7 +1775,7 @@
         <v>86</v>
       </c>
       <c r="V14" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="W14" t="s">
         <v>72</v>
@@ -1798,10 +1801,10 @@
         <v>20</v>
       </c>
       <c r="U15" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="V15" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="W15" t="s">
         <v>45</v>
@@ -1824,10 +1827,10 @@
         <v>3</v>
       </c>
       <c r="U16" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="V16" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="W16" t="s">
         <v>78</v>
@@ -1850,10 +1853,10 @@
         <v>1</v>
       </c>
       <c r="U17" s="1" t="s">
-        <v>87</v>
+        <v>120</v>
       </c>
       <c r="V17" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="W17" t="s">
         <v>81</v>

--- a/res/items.xlsx
+++ b/res/items.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="132" windowWidth="14112" windowHeight="7752"/>
+    <workbookView xWindow="240" yWindow="135" windowWidth="14115" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="items" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="128" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="122">
   <si>
     <t>Item ID</t>
   </si>
@@ -377,6 +377,9 @@
   </si>
   <si>
     <t>-18, -34</t>
+  </si>
+  <si>
+    <t>2, 1</t>
   </si>
 </sst>
 </file>
@@ -1201,13 +1204,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AG17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" workbookViewId="0">
-      <selection activeCell="U20" sqref="U20"/>
+    <sheetView tabSelected="1" topLeftCell="U1" workbookViewId="0">
+      <selection activeCell="AE8" sqref="AE8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="21" max="21" width="11.44140625" style="1"/>
+    <col min="21" max="21" width="11.42578125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:33">
@@ -1464,6 +1467,9 @@
       </c>
       <c r="AF5" t="s">
         <v>115</v>
+      </c>
+      <c r="AG5" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:33">
